--- a/progress_example/137W071.xlsx
+++ b/progress_example/137W071.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>水经注</t>
   </si>
   <si>
-    <t>卷三十九《郦注》</t>
-  </si>
-  <si>
     <t>魏宁，故阳安也。</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
   <si>
     <t>三国疆域志补注</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卷十四</t>
   </si>
   <si>
     <t>洪亮吉;谢钟英(多个作者并列用英文半角分号;)</t>
@@ -423,6 +417,14 @@
     <rPh sb="2" eb="3">
       <t>ci</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卷三十九《郦注》</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卷十四</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -822,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -863,244 +865,246 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="13" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1128,92 +1132,92 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1234,28 +1238,28 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
